--- a/feedback/Feedback on Tariff Data Specification (TDS).xlsx
+++ b/feedback/Feedback on Tariff Data Specification (TDS).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinredmond/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://retailenergycodecompany-my.sharepoint.com/personal/alson_yau_retailenergycode_co_uk/Documents/Documents/Data &amp; Digitalisation Strategy/SSES/Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E27A3A6-1617-467B-B0C5-4C99CD637118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0E27A3A6-1617-467B-B0C5-4C99CD637118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30AC6EB7-CDB4-4EE1-9359-BFD13ABF31B5}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="-1600" windowWidth="51200" windowHeight="28300" firstSheet="1" activeTab="1" xr2:uid="{B70353D2-D86C-0342-904B-588A54F05DCA}"/>
+    <workbookView xWindow="-10" yWindow="110" windowWidth="19180" windowHeight="10060" activeTab="1" xr2:uid="{B70353D2-D86C-0342-904B-588A54F05DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,6 @@
     <t>Assuming this the DNO ID of the region.</t>
   </si>
   <si>
-    <t>No, it is not dno region id (e.g. UKPN is UK Power Networks).  However, further discussion is welcome.</t>
-  </si>
-  <si>
     <t>live_mode</t>
   </si>
   <si>
@@ -685,12 +682,15 @@
   <si>
     <t>Indicates time when this tariff object was created.</t>
   </si>
+  <si>
+    <t>It is the DNO name (e.g. UKPN is UK Power Networks).  The standard values of the DNO list will be discussed.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1478,6 +1478,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1492,24 +1510,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1960,13 +1960,13 @@
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.100000000000001" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -1979,7 +1979,7 @@
       <c r="K2" s="49"/>
       <c r="L2" s="50"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="51"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -1992,7 +1992,7 @@
       <c r="K3" s="52"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -2005,7 +2005,7 @@
       <c r="K4" s="52"/>
       <c r="L4" s="53"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="51"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
@@ -2018,7 +2018,7 @@
       <c r="K5" s="52"/>
       <c r="L5" s="53"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -2031,7 +2031,7 @@
       <c r="K6" s="52"/>
       <c r="L6" s="53"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="51"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -2044,7 +2044,7 @@
       <c r="K7" s="52"/>
       <c r="L7" s="53"/>
     </row>
-    <row r="8" spans="2:12" ht="15.95" customHeight="1">
+    <row r="8" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="65" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="K8" s="66"/>
       <c r="L8" s="67"/>
     </row>
-    <row r="9" spans="2:12" ht="15.95" customHeight="1">
+    <row r="9" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="65"/>
       <c r="C9" s="66"/>
       <c r="D9" s="66"/>
@@ -2072,7 +2072,7 @@
       <c r="K9" s="66"/>
       <c r="L9" s="67"/>
     </row>
-    <row r="10" spans="2:12" ht="15.95" customHeight="1">
+    <row r="10" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="65" t="s">
         <v>1</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="K10" s="66"/>
       <c r="L10" s="67"/>
     </row>
-    <row r="11" spans="2:12" ht="15.95" customHeight="1">
+    <row r="11" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="65"/>
       <c r="C11" s="66"/>
       <c r="D11" s="66"/>
@@ -2100,7 +2100,7 @@
       <c r="K11" s="66"/>
       <c r="L11" s="67"/>
     </row>
-    <row r="12" spans="2:12" ht="15.95" customHeight="1">
+    <row r="12" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="42" t="s">
         <v>2</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="K12" s="43"/>
       <c r="L12" s="44"/>
     </row>
-    <row r="13" spans="2:12" ht="15.95" customHeight="1">
+    <row r="13" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -2128,7 +2128,7 @@
       <c r="K13" s="43"/>
       <c r="L13" s="44"/>
     </row>
-    <row r="14" spans="2:12" ht="15.95" customHeight="1">
+    <row r="14" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="42" t="s">
         <v>3</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="K14" s="43"/>
       <c r="L14" s="44"/>
     </row>
-    <row r="15" spans="2:12" ht="15.95" customHeight="1" thickBot="1">
+    <row r="15" spans="2:12" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -2156,8 +2156,8 @@
       <c r="K15" s="46"/>
       <c r="L15" s="47"/>
     </row>
-    <row r="16" spans="2:12" ht="17.100000000000001" thickBot="1"/>
-    <row r="17" spans="2:12">
+    <row r="16" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="54" t="s">
         <v>4</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="K17" s="55"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="57"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
@@ -2185,7 +2185,7 @@
       <c r="K18" s="58"/>
       <c r="L18" s="59"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="60" t="s">
         <v>5</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="K19" s="63"/>
       <c r="L19" s="64"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="60"/>
       <c r="C20" s="61"/>
       <c r="D20" s="61"/>
@@ -2215,7 +2215,7 @@
       <c r="K20" s="63"/>
       <c r="L20" s="64"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="60" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="K21" s="63"/>
       <c r="L21" s="64"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" s="60"/>
       <c r="C22" s="61"/>
       <c r="D22" s="61"/>
@@ -2245,7 +2245,7 @@
       <c r="K22" s="63"/>
       <c r="L22" s="64"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" s="60" t="s">
         <v>9</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="K23" s="63"/>
       <c r="L23" s="64"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="60"/>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
@@ -2275,7 +2275,7 @@
       <c r="K24" s="63"/>
       <c r="L24" s="64"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="60" t="s">
         <v>11</v>
       </c>
@@ -2290,47 +2290,47 @@
       <c r="K25" s="63"/>
       <c r="L25" s="64"/>
     </row>
-    <row r="26" spans="2:12" ht="17.100000000000001" thickBot="1">
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
-    </row>
-    <row r="27" spans="2:12" ht="17.100000000000001" thickBot="1"/>
-    <row r="28" spans="2:12" ht="59.1" customHeight="1">
-      <c r="B28" s="73" t="s">
+    <row r="26" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
+    </row>
+    <row r="27" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:12" ht="59.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="75"/>
-    </row>
-    <row r="29" spans="2:12" ht="59.1" customHeight="1" thickBot="1">
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="78"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
+    </row>
+    <row r="29" spans="2:12" ht="59.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2362,24 +2362,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06CCCC2-8BAC-0840-9CD2-2699CDB5727B}">
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M6" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
     <col min="3" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="120.5" style="1" customWidth="1"/>
-    <col min="10" max="13" width="99.125" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="1"/>
+    <col min="10" max="13" width="99.08203125" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12" customHeight="1"/>
-    <row r="2" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="1" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="L2" s="81"/>
       <c r="M2" s="82"/>
     </row>
-    <row r="3" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="3" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="4" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="5" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="6" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="7" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="8" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="9" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>45</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
@@ -2616,34 +2616,34 @@
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="5" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="33.950000000000003" customHeight="1">
-      <c r="B12" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="2:13" ht="54" customHeight="1">
+    <row r="13" spans="2:13" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="10"/>
@@ -2653,23 +2653,23 @@
         <v>26</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="33.950000000000003" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2684,16 +2684,16 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
       <c r="K14" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="33.950000000000003" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2705,15 +2705,15 @@
       <c r="H15" s="7"/>
       <c r="I15" s="6"/>
       <c r="J15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="16" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
@@ -2723,25 +2723,25 @@
         <v>26</v>
       </c>
       <c r="H16" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="31" t="s">
         <v>71</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>72</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="11" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="33.950000000000003" customHeight="1">
-      <c r="B17" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2751,25 +2751,25 @@
         <v>26</v>
       </c>
       <c r="H17" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="J17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="67.5" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="6"/>
@@ -2779,45 +2779,45 @@
         <v>26</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="10"/>
       <c r="K18" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="M18" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="M18" s="33" t="s">
+    </row>
+    <row r="19" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="14" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="33.950000000000003" customHeight="1">
-      <c r="B19" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
     </row>
-    <row r="20" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="20" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2827,19 +2827,19 @@
         <v>26</v>
       </c>
       <c r="H20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="21" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2849,19 +2849,19 @@
         <v>26</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="22" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="6"/>
@@ -2871,40 +2871,40 @@
         <v>26</v>
       </c>
       <c r="H22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="23" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="2:13" s="36" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="24" spans="2:13" s="36" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="37"/>
       <c r="C24" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -2913,267 +2913,267 @@
         <v>26</v>
       </c>
       <c r="H24" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="38" t="s">
         <v>97</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>98</v>
       </c>
       <c r="J24" s="40"/>
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
     </row>
-    <row r="25" spans="2:13" ht="51" customHeight="1">
+    <row r="25" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="13"/>
       <c r="C25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H25" s="7">
         <v>0.32100000000000001</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="M25" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="M25" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="33.950000000000003" customHeight="1">
+    </row>
+    <row r="26" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="33.950000000000003" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="33.950000000000003" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="I28" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="97.5" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="M29" s="33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="33.950000000000003" customHeight="1">
+    </row>
+    <row r="30" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
     </row>
-    <row r="31" spans="2:13" ht="33.950000000000003" customHeight="1">
+    <row r="31" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
     </row>
-    <row r="32" spans="2:13" ht="49.5" customHeight="1">
+    <row r="32" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="M32" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="M32" s="33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="33.950000000000003" customHeight="1">
+    </row>
+    <row r="33" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="H33" s="7">
         <v>30.5</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="33.950000000000003" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H34" s="7">
         <v>0.12</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="18" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="33.950000000000003" customHeight="1">
-      <c r="B35" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -3183,18 +3183,18 @@
         <v>26</v>
       </c>
       <c r="H35" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="21" t="s">
-        <v>143</v>
-      </c>
       <c r="J35" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3425,13 +3425,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B12DD05-17D4-4E7E-B230-7287A40C2C7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B12DD05-17D4-4E7E-B230-7287A40C2C7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="53a2f638-5852-43c9-9c33-b3ce8753f29c"/>
+    <ds:schemaRef ds:uri="81d9b952-a132-4d77-a9d0-9ef686452be1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D82D142-1D05-4F5A-ADE8-4486E913D37C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D82D142-1D05-4F5A-ADE8-4486E913D37C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3EDBA4F-D2F9-4110-A2DD-E17765AC62C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3EDBA4F-D2F9-4110-A2DD-E17765AC62C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="81d9b952-a132-4d77-a9d0-9ef686452be1"/>
+    <ds:schemaRef ds:uri="53a2f638-5852-43c9-9c33-b3ce8753f29c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>